--- a/Documents/SatisfactoryPlanner.xlsx
+++ b/Documents/SatisfactoryPlanner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7CC11C-1FD5-4E41-881B-790919495B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAEE951-033E-4B6D-983F-13DED82D23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="780" activeTab="1" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
@@ -1462,7 +1462,7 @@
   <dimension ref="C1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2288,14 +2288,15 @@
         <v>58</v>
       </c>
       <c r="R50" s="14">
-        <v>20</v>
+        <v>5.625</v>
       </c>
       <c r="S50" s="14">
         <f>R50*2.5</f>
-        <v>50</v>
+        <v>14.0625</v>
       </c>
       <c r="T50" s="17">
-        <v>5.625</v>
+        <f>R50*O50</f>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="6:20" x14ac:dyDescent="0.25">
@@ -2303,30 +2304,29 @@
         <v>57</v>
       </c>
       <c r="G51" s="14">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" ref="H51" si="2">G51*2.5</f>
-        <v>37.5</v>
+        <v>150</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14">
-        <f>G38</f>
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="N51" s="14"/>
       <c r="O51" s="14">
         <f>M51/G51</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P51" s="17">
         <f>M51/H51</f>
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="Q51" s="14" t="s">
         <v>25</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="T51" s="17">
         <f>R51*O51</f>
-        <v>0</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/SatisfactoryPlanner.xlsx
+++ b/Documents/SatisfactoryPlanner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hofund\Repositories\CodeBase\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAEE951-033E-4B6D-983F-13DED82D23DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EEC7E4-E196-4B1F-B586-918735208F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="780" activeTab="1" xr2:uid="{16EA9A20-0D63-4694-8194-00B2147553CC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
   <si>
     <t>Iron Ore</t>
   </si>
@@ -214,6 +214,12 @@
   </si>
   <si>
     <t>Reinforced Iron Plate</t>
+  </si>
+  <si>
+    <t>Materials Sent To South Central</t>
+  </si>
+  <si>
+    <t>Remaining Materials</t>
   </si>
 </sst>
 </file>
@@ -461,8 +467,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -470,11 +479,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1459,10 +1465,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="C1:T51"/>
+  <dimension ref="C1:T55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,22 +1499,22 @@
     <row r="1" spans="3:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:19" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:19" ht="29.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
@@ -1519,14 +1525,14 @@
       <c r="S4" s="16"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
@@ -1612,10 +1618,10 @@
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
@@ -1695,10 +1701,10 @@
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
@@ -1718,23 +1724,23 @@
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="F26" s="5" t="s">
@@ -1927,14 +1933,14 @@
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="I31" s="22" t="s">
+      <c r="G31" s="24"/>
+      <c r="I31" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J31" s="23"/>
+      <c r="J31" s="24"/>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="F32" s="14" t="s">
@@ -1985,10 +1991,10 @@
       </c>
     </row>
     <row r="36" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F36" s="24" t="s">
+      <c r="F36" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F37" s="13" t="s">
@@ -2000,23 +2006,23 @@
       </c>
     </row>
     <row r="39" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
     </row>
     <row r="40" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F40" s="5" t="s">
@@ -2128,17 +2134,16 @@
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
       <c r="M42" s="14">
-        <f>G33</f>
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="N42" s="14"/>
       <c r="O42" s="14">
         <f>M42/G42</f>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="P42" s="17">
         <f>M42/H42</f>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q42" s="14" t="s">
         <v>25</v>
@@ -2152,14 +2157,14 @@
       </c>
       <c r="T42" s="17">
         <f>R42*O42</f>
-        <v>4800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="44" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F45" s="14" t="s">
@@ -2176,27 +2181,27 @@
       </c>
       <c r="G46" s="17">
         <f>T42</f>
-        <v>4800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="48" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
     </row>
     <row r="49" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F49" s="5" t="s">
@@ -2343,19 +2348,74 @@
         <v>480</v>
       </c>
     </row>
+    <row r="53" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F53" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="22"/>
+      <c r="I53" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J53" s="24"/>
+      <c r="L53" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M53" s="24"/>
+    </row>
+    <row r="54" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G54" s="6">
+        <v>240</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J54" s="17">
+        <f>G46-M51-N50-G54</f>
+        <v>800</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M54" s="17">
+        <f>G45-M50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="6">
+        <f>T51</f>
+        <v>480</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="17">
+        <f>G46-N50-M51-G54-J54</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="F25:T25"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="F39:T39"/>
     <mergeCell ref="F48:T48"/>
     <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C3:P3"/>
-    <mergeCell ref="F25:T25"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2380,26 +2440,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:52" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
       <c r="AA2" s="26"/>
@@ -2430,24 +2490,24 @@
       <c r="AZ2" s="26"/>
     </row>
     <row r="3" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="26"/>
@@ -2478,24 +2538,24 @@
       <c r="AZ3" s="26"/>
     </row>
     <row r="4" spans="1:52" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
       <c r="Y4" s="26"/>
       <c r="Z4" s="26"/>
       <c r="AA4" s="26"/>
@@ -2646,10 +2706,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="3:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
